--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_123.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_123.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32478-d1441246-Reviews-Comfort_Inn_Cockatoo_Near_LAX_Airport-Hawthorne_California.html</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>877</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Cockatoo-Near-LAX-Airport.h2631500.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_123.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_123.xlsx
@@ -9692,7 +9692,7 @@
         <v>59764</v>
       </c>
       <c r="B3" t="n">
-        <v>131069</v>
+        <v>161818</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -9763,7 +9763,7 @@
         <v>59764</v>
       </c>
       <c r="B4" t="n">
-        <v>131070</v>
+        <v>161819</v>
       </c>
       <c r="C4" t="s">
         <v>67</v>
@@ -9828,7 +9828,7 @@
         <v>59764</v>
       </c>
       <c r="B5" t="n">
-        <v>131071</v>
+        <v>161820</v>
       </c>
       <c r="C5" t="s">
         <v>74</v>
@@ -9899,7 +9899,7 @@
         <v>59764</v>
       </c>
       <c r="B6" t="n">
-        <v>131072</v>
+        <v>161821</v>
       </c>
       <c r="C6" t="s">
         <v>83</v>
@@ -9968,7 +9968,7 @@
         <v>59764</v>
       </c>
       <c r="B7" t="n">
-        <v>131073</v>
+        <v>161822</v>
       </c>
       <c r="C7" t="s">
         <v>90</v>
@@ -10033,7 +10033,7 @@
         <v>59764</v>
       </c>
       <c r="B8" t="n">
-        <v>131074</v>
+        <v>161823</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -10173,7 +10173,7 @@
         <v>59764</v>
       </c>
       <c r="B10" t="n">
-        <v>131075</v>
+        <v>161824</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -10242,7 +10242,7 @@
         <v>59764</v>
       </c>
       <c r="B11" t="n">
-        <v>131076</v>
+        <v>161825</v>
       </c>
       <c r="C11" t="s">
         <v>122</v>
@@ -10307,7 +10307,7 @@
         <v>59764</v>
       </c>
       <c r="B12" t="n">
-        <v>131077</v>
+        <v>161826</v>
       </c>
       <c r="C12" t="s">
         <v>131</v>
@@ -10372,7 +10372,7 @@
         <v>59764</v>
       </c>
       <c r="B13" t="n">
-        <v>131078</v>
+        <v>161827</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -10437,7 +10437,7 @@
         <v>59764</v>
       </c>
       <c r="B14" t="n">
-        <v>131079</v>
+        <v>161828</v>
       </c>
       <c r="C14" t="s">
         <v>148</v>
@@ -10508,7 +10508,7 @@
         <v>59764</v>
       </c>
       <c r="B15" t="n">
-        <v>131080</v>
+        <v>161829</v>
       </c>
       <c r="C15" t="s">
         <v>157</v>
@@ -10638,7 +10638,7 @@
         <v>59764</v>
       </c>
       <c r="B17" t="n">
-        <v>131081</v>
+        <v>161830</v>
       </c>
       <c r="C17" t="s">
         <v>171</v>
@@ -10709,7 +10709,7 @@
         <v>59764</v>
       </c>
       <c r="B18" t="n">
-        <v>131082</v>
+        <v>161831</v>
       </c>
       <c r="C18" t="s">
         <v>181</v>
@@ -11046,7 +11046,7 @@
         <v>59764</v>
       </c>
       <c r="B23" t="n">
-        <v>131083</v>
+        <v>161832</v>
       </c>
       <c r="C23" t="s">
         <v>220</v>
@@ -11115,7 +11115,7 @@
         <v>59764</v>
       </c>
       <c r="B24" t="n">
-        <v>131084</v>
+        <v>161833</v>
       </c>
       <c r="C24" t="s">
         <v>227</v>
@@ -11180,7 +11180,7 @@
         <v>59764</v>
       </c>
       <c r="B25" t="n">
-        <v>131085</v>
+        <v>161834</v>
       </c>
       <c r="C25" t="s">
         <v>233</v>
@@ -11314,7 +11314,7 @@
         <v>59764</v>
       </c>
       <c r="B27" t="n">
-        <v>131086</v>
+        <v>161835</v>
       </c>
       <c r="C27" t="s">
         <v>250</v>
@@ -11385,7 +11385,7 @@
         <v>59764</v>
       </c>
       <c r="B28" t="n">
-        <v>131087</v>
+        <v>161836</v>
       </c>
       <c r="C28" t="s">
         <v>257</v>
@@ -11456,7 +11456,7 @@
         <v>59764</v>
       </c>
       <c r="B29" t="n">
-        <v>131088</v>
+        <v>161837</v>
       </c>
       <c r="C29" t="s">
         <v>264</v>
@@ -11525,7 +11525,7 @@
         <v>59764</v>
       </c>
       <c r="B30" t="n">
-        <v>131089</v>
+        <v>161838</v>
       </c>
       <c r="C30" t="s">
         <v>272</v>
@@ -11665,7 +11665,7 @@
         <v>59764</v>
       </c>
       <c r="B32" t="n">
-        <v>131090</v>
+        <v>161839</v>
       </c>
       <c r="C32" t="s">
         <v>285</v>
@@ -11734,7 +11734,7 @@
         <v>59764</v>
       </c>
       <c r="B33" t="n">
-        <v>131091</v>
+        <v>161840</v>
       </c>
       <c r="C33" t="s">
         <v>295</v>
@@ -11799,7 +11799,7 @@
         <v>59764</v>
       </c>
       <c r="B34" t="n">
-        <v>131092</v>
+        <v>161841</v>
       </c>
       <c r="C34" t="s">
         <v>301</v>
@@ -11868,7 +11868,7 @@
         <v>59764</v>
       </c>
       <c r="B35" t="n">
-        <v>131093</v>
+        <v>161842</v>
       </c>
       <c r="C35" t="s">
         <v>308</v>
@@ -11933,7 +11933,7 @@
         <v>59764</v>
       </c>
       <c r="B36" t="n">
-        <v>131094</v>
+        <v>131113</v>
       </c>
       <c r="C36" t="s">
         <v>317</v>
@@ -11998,7 +11998,7 @@
         <v>59764</v>
       </c>
       <c r="B37" t="n">
-        <v>131095</v>
+        <v>161843</v>
       </c>
       <c r="C37" t="s">
         <v>327</v>
@@ -12063,7 +12063,7 @@
         <v>59764</v>
       </c>
       <c r="B38" t="n">
-        <v>131096</v>
+        <v>161844</v>
       </c>
       <c r="C38" t="s">
         <v>334</v>
@@ -12132,7 +12132,7 @@
         <v>59764</v>
       </c>
       <c r="B39" t="n">
-        <v>131097</v>
+        <v>161845</v>
       </c>
       <c r="C39" t="s">
         <v>343</v>
@@ -12201,7 +12201,7 @@
         <v>59764</v>
       </c>
       <c r="B40" t="n">
-        <v>131098</v>
+        <v>161846</v>
       </c>
       <c r="C40" t="s">
         <v>351</v>
@@ -12341,7 +12341,7 @@
         <v>59764</v>
       </c>
       <c r="B42" t="n">
-        <v>131099</v>
+        <v>161847</v>
       </c>
       <c r="C42" t="s">
         <v>368</v>
@@ -12412,7 +12412,7 @@
         <v>59764</v>
       </c>
       <c r="B43" t="n">
-        <v>131100</v>
+        <v>161848</v>
       </c>
       <c r="C43" t="s">
         <v>375</v>
@@ -12623,7 +12623,7 @@
         <v>59764</v>
       </c>
       <c r="B46" t="n">
-        <v>131101</v>
+        <v>161849</v>
       </c>
       <c r="C46" t="s">
         <v>399</v>
@@ -12694,7 +12694,7 @@
         <v>59764</v>
       </c>
       <c r="B47" t="n">
-        <v>131102</v>
+        <v>161850</v>
       </c>
       <c r="C47" t="s">
         <v>408</v>
@@ -12763,7 +12763,7 @@
         <v>59764</v>
       </c>
       <c r="B48" t="n">
-        <v>131103</v>
+        <v>161851</v>
       </c>
       <c r="C48" t="s">
         <v>415</v>
@@ -12832,7 +12832,7 @@
         <v>59764</v>
       </c>
       <c r="B49" t="n">
-        <v>131104</v>
+        <v>161852</v>
       </c>
       <c r="C49" t="s">
         <v>422</v>
@@ -12897,7 +12897,7 @@
         <v>59764</v>
       </c>
       <c r="B50" t="n">
-        <v>131105</v>
+        <v>161853</v>
       </c>
       <c r="C50" t="s">
         <v>429</v>
@@ -12962,7 +12962,7 @@
         <v>59764</v>
       </c>
       <c r="B51" t="n">
-        <v>131106</v>
+        <v>161854</v>
       </c>
       <c r="C51" t="s">
         <v>436</v>
@@ -13033,7 +13033,7 @@
         <v>59764</v>
       </c>
       <c r="B52" t="n">
-        <v>131107</v>
+        <v>161855</v>
       </c>
       <c r="C52" t="s">
         <v>444</v>
@@ -13098,7 +13098,7 @@
         <v>59764</v>
       </c>
       <c r="B53" t="n">
-        <v>131108</v>
+        <v>161856</v>
       </c>
       <c r="C53" t="s">
         <v>451</v>
@@ -13234,7 +13234,7 @@
         <v>59764</v>
       </c>
       <c r="B55" t="n">
-        <v>131109</v>
+        <v>161857</v>
       </c>
       <c r="C55" t="s">
         <v>468</v>
@@ -13376,7 +13376,7 @@
         <v>59764</v>
       </c>
       <c r="B57" t="n">
-        <v>131110</v>
+        <v>161858</v>
       </c>
       <c r="C57" t="s">
         <v>484</v>
@@ -13447,7 +13447,7 @@
         <v>59764</v>
       </c>
       <c r="B58" t="n">
-        <v>131111</v>
+        <v>161859</v>
       </c>
       <c r="C58" t="s">
         <v>491</v>
@@ -13518,7 +13518,7 @@
         <v>59764</v>
       </c>
       <c r="B59" t="n">
-        <v>131112</v>
+        <v>161860</v>
       </c>
       <c r="C59" t="s">
         <v>499</v>
@@ -13589,7 +13589,7 @@
         <v>59764</v>
       </c>
       <c r="B60" t="n">
-        <v>131113</v>
+        <v>161861</v>
       </c>
       <c r="C60" t="s">
         <v>508</v>
@@ -13725,7 +13725,7 @@
         <v>59764</v>
       </c>
       <c r="B62" t="n">
-        <v>131114</v>
+        <v>161862</v>
       </c>
       <c r="C62" t="s">
         <v>525</v>
@@ -13796,7 +13796,7 @@
         <v>59764</v>
       </c>
       <c r="B63" t="n">
-        <v>131115</v>
+        <v>161863</v>
       </c>
       <c r="C63" t="s">
         <v>532</v>
@@ -13936,7 +13936,7 @@
         <v>59764</v>
       </c>
       <c r="B65" t="n">
-        <v>131116</v>
+        <v>161864</v>
       </c>
       <c r="C65" t="s">
         <v>546</v>
@@ -14005,7 +14005,7 @@
         <v>59764</v>
       </c>
       <c r="B66" t="n">
-        <v>131117</v>
+        <v>161865</v>
       </c>
       <c r="C66" t="s">
         <v>555</v>
@@ -14074,7 +14074,7 @@
         <v>59764</v>
       </c>
       <c r="B67" t="n">
-        <v>131118</v>
+        <v>161866</v>
       </c>
       <c r="C67" t="s">
         <v>562</v>
@@ -14143,7 +14143,7 @@
         <v>59764</v>
       </c>
       <c r="B68" t="n">
-        <v>131119</v>
+        <v>161867</v>
       </c>
       <c r="C68" t="s">
         <v>569</v>
@@ -14214,7 +14214,7 @@
         <v>59764</v>
       </c>
       <c r="B69" t="n">
-        <v>131120</v>
+        <v>161868</v>
       </c>
       <c r="C69" t="s">
         <v>578</v>
@@ -14344,7 +14344,7 @@
         <v>59764</v>
       </c>
       <c r="B71" t="n">
-        <v>131121</v>
+        <v>161869</v>
       </c>
       <c r="C71" t="s">
         <v>591</v>
@@ -14413,7 +14413,7 @@
         <v>59764</v>
       </c>
       <c r="B72" t="n">
-        <v>131122</v>
+        <v>161870</v>
       </c>
       <c r="C72" t="s">
         <v>600</v>
@@ -14478,7 +14478,7 @@
         <v>59764</v>
       </c>
       <c r="B73" t="n">
-        <v>131123</v>
+        <v>161871</v>
       </c>
       <c r="C73" t="s">
         <v>607</v>
@@ -14543,7 +14543,7 @@
         <v>59764</v>
       </c>
       <c r="B74" t="n">
-        <v>131124</v>
+        <v>161872</v>
       </c>
       <c r="C74" t="s">
         <v>614</v>
@@ -14614,7 +14614,7 @@
         <v>59764</v>
       </c>
       <c r="B75" t="n">
-        <v>131125</v>
+        <v>161873</v>
       </c>
       <c r="C75" t="s">
         <v>622</v>
@@ -14685,7 +14685,7 @@
         <v>59764</v>
       </c>
       <c r="B76" t="n">
-        <v>131126</v>
+        <v>161874</v>
       </c>
       <c r="C76" t="s">
         <v>629</v>
@@ -14754,7 +14754,7 @@
         <v>59764</v>
       </c>
       <c r="B77" t="n">
-        <v>131127</v>
+        <v>161875</v>
       </c>
       <c r="C77" t="s">
         <v>636</v>
@@ -14823,7 +14823,7 @@
         <v>59764</v>
       </c>
       <c r="B78" t="n">
-        <v>131128</v>
+        <v>161876</v>
       </c>
       <c r="C78" t="s">
         <v>644</v>
@@ -14884,7 +14884,7 @@
         <v>59764</v>
       </c>
       <c r="B79" t="n">
-        <v>131129</v>
+        <v>161877</v>
       </c>
       <c r="C79" t="s">
         <v>650</v>
@@ -14955,7 +14955,7 @@
         <v>59764</v>
       </c>
       <c r="B80" t="n">
-        <v>131130</v>
+        <v>161878</v>
       </c>
       <c r="C80" t="s">
         <v>657</v>
@@ -15026,7 +15026,7 @@
         <v>59764</v>
       </c>
       <c r="B81" t="n">
-        <v>131131</v>
+        <v>161879</v>
       </c>
       <c r="C81" t="s">
         <v>664</v>
@@ -15162,7 +15162,7 @@
         <v>59764</v>
       </c>
       <c r="B83" t="n">
-        <v>131132</v>
+        <v>161880</v>
       </c>
       <c r="C83" t="s">
         <v>679</v>
@@ -15365,7 +15365,7 @@
         <v>59764</v>
       </c>
       <c r="B86" t="n">
-        <v>131133</v>
+        <v>161881</v>
       </c>
       <c r="C86" t="s">
         <v>702</v>
@@ -15434,7 +15434,7 @@
         <v>59764</v>
       </c>
       <c r="B87" t="n">
-        <v>131134</v>
+        <v>161882</v>
       </c>
       <c r="C87" t="s">
         <v>710</v>
@@ -15503,7 +15503,7 @@
         <v>59764</v>
       </c>
       <c r="B88" t="n">
-        <v>131135</v>
+        <v>161883</v>
       </c>
       <c r="C88" t="s">
         <v>719</v>
@@ -15568,7 +15568,7 @@
         <v>59764</v>
       </c>
       <c r="B89" t="n">
-        <v>131136</v>
+        <v>161884</v>
       </c>
       <c r="C89" t="s">
         <v>726</v>
@@ -15710,7 +15710,7 @@
         <v>59764</v>
       </c>
       <c r="B91" t="n">
-        <v>131137</v>
+        <v>161885</v>
       </c>
       <c r="C91" t="s">
         <v>742</v>
@@ -15852,7 +15852,7 @@
         <v>59764</v>
       </c>
       <c r="B93" t="n">
-        <v>131138</v>
+        <v>161886</v>
       </c>
       <c r="C93" t="s">
         <v>758</v>
@@ -16059,7 +16059,7 @@
         <v>59764</v>
       </c>
       <c r="B96" t="n">
-        <v>131139</v>
+        <v>161887</v>
       </c>
       <c r="C96" t="s">
         <v>782</v>
@@ -16128,7 +16128,7 @@
         <v>59764</v>
       </c>
       <c r="B97" t="n">
-        <v>131140</v>
+        <v>161888</v>
       </c>
       <c r="C97" t="s">
         <v>792</v>
@@ -16199,7 +16199,7 @@
         <v>59764</v>
       </c>
       <c r="B98" t="n">
-        <v>131141</v>
+        <v>161889</v>
       </c>
       <c r="C98" t="s">
         <v>801</v>
@@ -16264,7 +16264,7 @@
         <v>59764</v>
       </c>
       <c r="B99" t="n">
-        <v>131142</v>
+        <v>161890</v>
       </c>
       <c r="C99" t="s">
         <v>810</v>
@@ -16333,7 +16333,7 @@
         <v>59764</v>
       </c>
       <c r="B100" t="n">
-        <v>131143</v>
+        <v>161891</v>
       </c>
       <c r="C100" t="s">
         <v>819</v>
@@ -16394,7 +16394,7 @@
         <v>59764</v>
       </c>
       <c r="B101" t="n">
-        <v>131144</v>
+        <v>161892</v>
       </c>
       <c r="C101" t="s">
         <v>825</v>
@@ -16463,7 +16463,7 @@
         <v>59764</v>
       </c>
       <c r="B102" t="n">
-        <v>131145</v>
+        <v>161893</v>
       </c>
       <c r="C102" t="s">
         <v>834</v>
@@ -16532,7 +16532,7 @@
         <v>59764</v>
       </c>
       <c r="B103" t="n">
-        <v>131146</v>
+        <v>161894</v>
       </c>
       <c r="C103" t="s">
         <v>840</v>
@@ -16662,7 +16662,7 @@
         <v>59764</v>
       </c>
       <c r="B105" t="n">
-        <v>131147</v>
+        <v>161895</v>
       </c>
       <c r="C105" t="s">
         <v>856</v>
@@ -16733,7 +16733,7 @@
         <v>59764</v>
       </c>
       <c r="B106" t="n">
-        <v>131148</v>
+        <v>161896</v>
       </c>
       <c r="C106" t="s">
         <v>863</v>
@@ -16871,7 +16871,7 @@
         <v>59764</v>
       </c>
       <c r="B108" t="n">
-        <v>131149</v>
+        <v>161897</v>
       </c>
       <c r="C108" t="s">
         <v>880</v>
@@ -17013,7 +17013,7 @@
         <v>59764</v>
       </c>
       <c r="B110" t="n">
-        <v>131150</v>
+        <v>161898</v>
       </c>
       <c r="C110" t="s">
         <v>898</v>
@@ -17078,7 +17078,7 @@
         <v>59764</v>
       </c>
       <c r="B111" t="n">
-        <v>131151</v>
+        <v>161899</v>
       </c>
       <c r="C111" t="s">
         <v>907</v>
@@ -17147,7 +17147,7 @@
         <v>59764</v>
       </c>
       <c r="B112" t="n">
-        <v>131152</v>
+        <v>161900</v>
       </c>
       <c r="C112" t="s">
         <v>914</v>
@@ -17346,7 +17346,7 @@
         <v>59764</v>
       </c>
       <c r="B115" t="n">
-        <v>131153</v>
+        <v>161901</v>
       </c>
       <c r="C115" t="s">
         <v>934</v>
@@ -17417,7 +17417,7 @@
         <v>59764</v>
       </c>
       <c r="B116" t="n">
-        <v>131154</v>
+        <v>161902</v>
       </c>
       <c r="C116" t="s">
         <v>940</v>
@@ -17632,7 +17632,7 @@
         <v>59764</v>
       </c>
       <c r="B119" t="n">
-        <v>131155</v>
+        <v>161903</v>
       </c>
       <c r="C119" t="s">
         <v>967</v>
@@ -17701,7 +17701,7 @@
         <v>59764</v>
       </c>
       <c r="B120" t="n">
-        <v>131156</v>
+        <v>161904</v>
       </c>
       <c r="C120" t="s">
         <v>977</v>
@@ -17983,7 +17983,7 @@
         <v>59764</v>
       </c>
       <c r="B124" t="n">
-        <v>131157</v>
+        <v>161905</v>
       </c>
       <c r="C124" t="s">
         <v>1007</v>
@@ -18121,7 +18121,7 @@
         <v>59764</v>
       </c>
       <c r="B126" t="n">
-        <v>131158</v>
+        <v>161906</v>
       </c>
       <c r="C126" t="s">
         <v>1025</v>
@@ -18192,7 +18192,7 @@
         <v>59764</v>
       </c>
       <c r="B127" t="n">
-        <v>131159</v>
+        <v>161907</v>
       </c>
       <c r="C127" t="s">
         <v>1034</v>
@@ -18257,7 +18257,7 @@
         <v>59764</v>
       </c>
       <c r="B128" t="n">
-        <v>131160</v>
+        <v>161908</v>
       </c>
       <c r="C128" t="s">
         <v>1043</v>
@@ -18326,7 +18326,7 @@
         <v>59764</v>
       </c>
       <c r="B129" t="n">
-        <v>131161</v>
+        <v>161909</v>
       </c>
       <c r="C129" t="s">
         <v>1052</v>
@@ -18397,7 +18397,7 @@
         <v>59764</v>
       </c>
       <c r="B130" t="n">
-        <v>131162</v>
+        <v>161910</v>
       </c>
       <c r="C130" t="s">
         <v>1062</v>
@@ -18466,7 +18466,7 @@
         <v>59764</v>
       </c>
       <c r="B131" t="n">
-        <v>131163</v>
+        <v>161911</v>
       </c>
       <c r="C131" t="s">
         <v>1072</v>
@@ -18537,7 +18537,7 @@
         <v>59764</v>
       </c>
       <c r="B132" t="n">
-        <v>131164</v>
+        <v>131118</v>
       </c>
       <c r="C132" t="s">
         <v>1081</v>
@@ -18608,7 +18608,7 @@
         <v>59764</v>
       </c>
       <c r="B133" t="n">
-        <v>131165</v>
+        <v>161912</v>
       </c>
       <c r="C133" t="s">
         <v>1091</v>
@@ -18750,7 +18750,7 @@
         <v>59764</v>
       </c>
       <c r="B135" t="n">
-        <v>131166</v>
+        <v>161913</v>
       </c>
       <c r="C135" t="s">
         <v>1107</v>
@@ -18876,7 +18876,7 @@
         <v>59764</v>
       </c>
       <c r="B137" t="n">
-        <v>131167</v>
+        <v>161914</v>
       </c>
       <c r="C137" t="s">
         <v>1120</v>
@@ -18941,7 +18941,7 @@
         <v>59764</v>
       </c>
       <c r="B138" t="n">
-        <v>131168</v>
+        <v>161915</v>
       </c>
       <c r="C138" t="s">
         <v>1129</v>
@@ -19075,7 +19075,7 @@
         <v>59764</v>
       </c>
       <c r="B140" t="n">
-        <v>131169</v>
+        <v>131159</v>
       </c>
       <c r="C140" t="s">
         <v>1145</v>
@@ -19144,7 +19144,7 @@
         <v>59764</v>
       </c>
       <c r="B141" t="n">
-        <v>131170</v>
+        <v>161916</v>
       </c>
       <c r="C141" t="s">
         <v>1152</v>
@@ -19282,7 +19282,7 @@
         <v>59764</v>
       </c>
       <c r="B143" t="n">
-        <v>131171</v>
+        <v>161917</v>
       </c>
       <c r="C143" t="s">
         <v>1169</v>
@@ -19420,7 +19420,7 @@
         <v>59764</v>
       </c>
       <c r="B145" t="n">
-        <v>131172</v>
+        <v>161918</v>
       </c>
       <c r="C145" t="s">
         <v>1186</v>
@@ -19489,7 +19489,7 @@
         <v>59764</v>
       </c>
       <c r="B146" t="n">
-        <v>131173</v>
+        <v>161919</v>
       </c>
       <c r="C146" t="s">
         <v>1195</v>
@@ -19558,7 +19558,7 @@
         <v>59764</v>
       </c>
       <c r="B147" t="n">
-        <v>131174</v>
+        <v>161920</v>
       </c>
       <c r="C147" t="s">
         <v>1202</v>
@@ -19698,7 +19698,7 @@
         <v>59764</v>
       </c>
       <c r="B149" t="n">
-        <v>131175</v>
+        <v>161921</v>
       </c>
       <c r="C149" t="s">
         <v>1217</v>
@@ -19909,7 +19909,7 @@
         <v>59764</v>
       </c>
       <c r="B152" t="n">
-        <v>131176</v>
+        <v>161922</v>
       </c>
       <c r="C152" t="s">
         <v>1243</v>
@@ -19980,7 +19980,7 @@
         <v>59764</v>
       </c>
       <c r="B153" t="n">
-        <v>131177</v>
+        <v>161923</v>
       </c>
       <c r="C153" t="s">
         <v>1252</v>
@@ -20116,7 +20116,7 @@
         <v>59764</v>
       </c>
       <c r="B155" t="n">
-        <v>131178</v>
+        <v>161924</v>
       </c>
       <c r="C155" t="s">
         <v>1269</v>
@@ -20187,7 +20187,7 @@
         <v>59764</v>
       </c>
       <c r="B156" t="n">
-        <v>131179</v>
+        <v>161925</v>
       </c>
       <c r="C156" t="s">
         <v>1278</v>
@@ -20323,7 +20323,7 @@
         <v>59764</v>
       </c>
       <c r="B158" t="n">
-        <v>131180</v>
+        <v>161926</v>
       </c>
       <c r="C158" t="s">
         <v>1294</v>
@@ -20392,7 +20392,7 @@
         <v>59764</v>
       </c>
       <c r="B159" t="n">
-        <v>131093</v>
+        <v>131113</v>
       </c>
       <c r="C159" t="s">
         <v>317</v>
@@ -20532,7 +20532,7 @@
         <v>59764</v>
       </c>
       <c r="B161" t="n">
-        <v>131181</v>
+        <v>161927</v>
       </c>
       <c r="C161" t="s">
         <v>1319</v>
@@ -20601,7 +20601,7 @@
         <v>59764</v>
       </c>
       <c r="B162" t="n">
-        <v>131182</v>
+        <v>161928</v>
       </c>
       <c r="C162" t="s">
         <v>1329</v>
@@ -20745,7 +20745,7 @@
         <v>59764</v>
       </c>
       <c r="B164" t="n">
-        <v>131183</v>
+        <v>161929</v>
       </c>
       <c r="C164" t="s">
         <v>1345</v>
@@ -20816,7 +20816,7 @@
         <v>59764</v>
       </c>
       <c r="B165" t="n">
-        <v>131184</v>
+        <v>161930</v>
       </c>
       <c r="C165" t="s">
         <v>1355</v>
@@ -20891,7 +20891,7 @@
         <v>59764</v>
       </c>
       <c r="B166" t="n">
-        <v>131185</v>
+        <v>161931</v>
       </c>
       <c r="C166" t="s">
         <v>1362</v>
@@ -20962,7 +20962,7 @@
         <v>59764</v>
       </c>
       <c r="B167" t="n">
-        <v>131186</v>
+        <v>161932</v>
       </c>
       <c r="C167" t="s">
         <v>1371</v>
@@ -21033,7 +21033,7 @@
         <v>59764</v>
       </c>
       <c r="B168" t="n">
-        <v>131187</v>
+        <v>148543</v>
       </c>
       <c r="C168" t="s">
         <v>1380</v>
@@ -21169,7 +21169,7 @@
         <v>59764</v>
       </c>
       <c r="B170" t="n">
-        <v>131188</v>
+        <v>161933</v>
       </c>
       <c r="C170" t="s">
         <v>1393</v>
@@ -21240,7 +21240,7 @@
         <v>59764</v>
       </c>
       <c r="B171" t="n">
-        <v>131189</v>
+        <v>161934</v>
       </c>
       <c r="C171" t="s">
         <v>1402</v>
@@ -21311,7 +21311,7 @@
         <v>59764</v>
       </c>
       <c r="B172" t="n">
-        <v>131190</v>
+        <v>161935</v>
       </c>
       <c r="C172" t="s">
         <v>1410</v>
@@ -21376,7 +21376,7 @@
         <v>59764</v>
       </c>
       <c r="B173" t="n">
-        <v>131191</v>
+        <v>161936</v>
       </c>
       <c r="C173" t="s">
         <v>1419</v>
@@ -21445,7 +21445,7 @@
         <v>59764</v>
       </c>
       <c r="B174" t="n">
-        <v>131192</v>
+        <v>161937</v>
       </c>
       <c r="C174" t="s">
         <v>1428</v>
@@ -21514,7 +21514,7 @@
         <v>59764</v>
       </c>
       <c r="B175" t="n">
-        <v>131193</v>
+        <v>161938</v>
       </c>
       <c r="C175" t="s">
         <v>1434</v>
@@ -21585,7 +21585,7 @@
         <v>59764</v>
       </c>
       <c r="B176" t="n">
-        <v>131194</v>
+        <v>161939</v>
       </c>
       <c r="C176" t="s">
         <v>1443</v>
@@ -21650,7 +21650,7 @@
         <v>59764</v>
       </c>
       <c r="B177" t="n">
-        <v>131195</v>
+        <v>161940</v>
       </c>
       <c r="C177" t="s">
         <v>1452</v>
@@ -21711,7 +21711,7 @@
         <v>59764</v>
       </c>
       <c r="B178" t="n">
-        <v>131196</v>
+        <v>161941</v>
       </c>
       <c r="C178" t="s">
         <v>1459</v>
@@ -21851,7 +21851,7 @@
         <v>59764</v>
       </c>
       <c r="B180" t="n">
-        <v>131197</v>
+        <v>161942</v>
       </c>
       <c r="C180" t="s">
         <v>1478</v>
@@ -21926,7 +21926,7 @@
         <v>59764</v>
       </c>
       <c r="B181" t="n">
-        <v>131198</v>
+        <v>161943</v>
       </c>
       <c r="C181" t="s">
         <v>1485</v>
@@ -22001,7 +22001,7 @@
         <v>59764</v>
       </c>
       <c r="B182" t="n">
-        <v>131199</v>
+        <v>161944</v>
       </c>
       <c r="C182" t="s">
         <v>1494</v>
@@ -22076,7 +22076,7 @@
         <v>59764</v>
       </c>
       <c r="B183" t="n">
-        <v>131200</v>
+        <v>161945</v>
       </c>
       <c r="C183" t="s">
         <v>1503</v>
@@ -22151,7 +22151,7 @@
         <v>59764</v>
       </c>
       <c r="B184" t="n">
-        <v>131201</v>
+        <v>161946</v>
       </c>
       <c r="C184" t="s">
         <v>1511</v>
@@ -22226,7 +22226,7 @@
         <v>59764</v>
       </c>
       <c r="B185" t="n">
-        <v>131202</v>
+        <v>131127</v>
       </c>
       <c r="C185" t="s">
         <v>1521</v>
@@ -22301,7 +22301,7 @@
         <v>59764</v>
       </c>
       <c r="B186" t="n">
-        <v>131163</v>
+        <v>131118</v>
       </c>
       <c r="C186" t="s">
         <v>1081</v>
@@ -22376,7 +22376,7 @@
         <v>59764</v>
       </c>
       <c r="B187" t="n">
-        <v>131203</v>
+        <v>161947</v>
       </c>
       <c r="C187" t="s">
         <v>1535</v>
@@ -22451,7 +22451,7 @@
         <v>59764</v>
       </c>
       <c r="B188" t="n">
-        <v>131204</v>
+        <v>161948</v>
       </c>
       <c r="C188" t="s">
         <v>1544</v>
@@ -22526,7 +22526,7 @@
         <v>59764</v>
       </c>
       <c r="B189" t="n">
-        <v>131205</v>
+        <v>161949</v>
       </c>
       <c r="C189" t="s">
         <v>1553</v>
@@ -22601,7 +22601,7 @@
         <v>59764</v>
       </c>
       <c r="B190" t="n">
-        <v>131206</v>
+        <v>161950</v>
       </c>
       <c r="C190" t="s">
         <v>1562</v>
@@ -22676,7 +22676,7 @@
         <v>59764</v>
       </c>
       <c r="B191" t="n">
-        <v>131207</v>
+        <v>161951</v>
       </c>
       <c r="C191" t="s">
         <v>1569</v>
@@ -22751,7 +22751,7 @@
         <v>59764</v>
       </c>
       <c r="B192" t="n">
-        <v>131208</v>
+        <v>161952</v>
       </c>
       <c r="C192" t="s">
         <v>1579</v>
@@ -22826,7 +22826,7 @@
         <v>59764</v>
       </c>
       <c r="B193" t="n">
-        <v>131209</v>
+        <v>161953</v>
       </c>
       <c r="C193" t="s">
         <v>1589</v>
@@ -22901,7 +22901,7 @@
         <v>59764</v>
       </c>
       <c r="B194" t="n">
-        <v>131210</v>
+        <v>161954</v>
       </c>
       <c r="C194" t="s">
         <v>1596</v>
@@ -22976,7 +22976,7 @@
         <v>59764</v>
       </c>
       <c r="B195" t="n">
-        <v>131211</v>
+        <v>161955</v>
       </c>
       <c r="C195" t="s">
         <v>1605</v>
@@ -23116,7 +23116,7 @@
         <v>59764</v>
       </c>
       <c r="B197" t="n">
-        <v>131212</v>
+        <v>161956</v>
       </c>
       <c r="C197" t="s">
         <v>1624</v>
@@ -23191,7 +23191,7 @@
         <v>59764</v>
       </c>
       <c r="B198" t="n">
-        <v>131213</v>
+        <v>161957</v>
       </c>
       <c r="C198" t="s">
         <v>1633</v>
@@ -23341,7 +23341,7 @@
         <v>59764</v>
       </c>
       <c r="B200" t="n">
-        <v>131214</v>
+        <v>161958</v>
       </c>
       <c r="C200" t="s">
         <v>1651</v>
@@ -23416,7 +23416,7 @@
         <v>59764</v>
       </c>
       <c r="B201" t="n">
-        <v>131215</v>
+        <v>161959</v>
       </c>
       <c r="C201" t="s">
         <v>1660</v>
@@ -23641,7 +23641,7 @@
         <v>59764</v>
       </c>
       <c r="B204" t="n">
-        <v>131216</v>
+        <v>161960</v>
       </c>
       <c r="C204" t="s">
         <v>1685</v>
@@ -23716,7 +23716,7 @@
         <v>59764</v>
       </c>
       <c r="B205" t="n">
-        <v>131217</v>
+        <v>161961</v>
       </c>
       <c r="C205" t="s">
         <v>1692</v>
@@ -23787,7 +23787,7 @@
         <v>59764</v>
       </c>
       <c r="B206" t="n">
-        <v>131093</v>
+        <v>131113</v>
       </c>
       <c r="C206" t="s">
         <v>317</v>
@@ -23923,7 +23923,7 @@
         <v>59764</v>
       </c>
       <c r="B208" t="n">
-        <v>131218</v>
+        <v>161962</v>
       </c>
       <c r="C208" t="s">
         <v>1714</v>
@@ -23998,7 +23998,7 @@
         <v>59764</v>
       </c>
       <c r="B209" t="n">
-        <v>131219</v>
+        <v>161963</v>
       </c>
       <c r="C209" t="s">
         <v>1722</v>
@@ -24073,7 +24073,7 @@
         <v>59764</v>
       </c>
       <c r="B210" t="n">
-        <v>131220</v>
+        <v>161964</v>
       </c>
       <c r="C210" t="s">
         <v>1731</v>
@@ -24148,7 +24148,7 @@
         <v>59764</v>
       </c>
       <c r="B211" t="n">
-        <v>131221</v>
+        <v>161965</v>
       </c>
       <c r="C211" t="s">
         <v>1739</v>
@@ -24349,7 +24349,7 @@
         <v>59764</v>
       </c>
       <c r="B214" t="n">
-        <v>131201</v>
+        <v>131127</v>
       </c>
       <c r="C214" t="s">
         <v>1521</v>
@@ -24499,7 +24499,7 @@
         <v>59764</v>
       </c>
       <c r="B216" t="n">
-        <v>131222</v>
+        <v>131157</v>
       </c>
       <c r="C216" t="s">
         <v>1778</v>
@@ -24574,7 +24574,7 @@
         <v>59764</v>
       </c>
       <c r="B217" t="n">
-        <v>131223</v>
+        <v>161966</v>
       </c>
       <c r="C217" t="s">
         <v>1786</v>
@@ -24639,7 +24639,7 @@
         <v>59764</v>
       </c>
       <c r="B218" t="n">
-        <v>131224</v>
+        <v>161967</v>
       </c>
       <c r="C218" t="s">
         <v>1792</v>
@@ -24714,7 +24714,7 @@
         <v>59764</v>
       </c>
       <c r="B219" t="n">
-        <v>131225</v>
+        <v>161968</v>
       </c>
       <c r="C219" t="s">
         <v>1801</v>
@@ -24998,7 +24998,7 @@
         <v>59764</v>
       </c>
       <c r="B223" t="n">
-        <v>131226</v>
+        <v>161969</v>
       </c>
       <c r="C223" t="s">
         <v>1827</v>
@@ -25069,7 +25069,7 @@
         <v>59764</v>
       </c>
       <c r="B224" t="n">
-        <v>131227</v>
+        <v>161970</v>
       </c>
       <c r="C224" t="s">
         <v>1834</v>
@@ -25140,7 +25140,7 @@
         <v>59764</v>
       </c>
       <c r="B225" t="n">
-        <v>131228</v>
+        <v>161971</v>
       </c>
       <c r="C225" t="s">
         <v>1842</v>
@@ -25286,7 +25286,7 @@
         <v>59764</v>
       </c>
       <c r="B227" t="n">
-        <v>131229</v>
+        <v>161972</v>
       </c>
       <c r="C227" t="s">
         <v>1857</v>
@@ -25357,7 +25357,7 @@
         <v>59764</v>
       </c>
       <c r="B228" t="n">
-        <v>131230</v>
+        <v>161973</v>
       </c>
       <c r="C228" t="s">
         <v>1864</v>
@@ -25428,7 +25428,7 @@
         <v>59764</v>
       </c>
       <c r="B229" t="n">
-        <v>131231</v>
+        <v>161974</v>
       </c>
       <c r="C229" t="s">
         <v>1873</v>
@@ -25578,7 +25578,7 @@
         <v>59764</v>
       </c>
       <c r="B231" t="n">
-        <v>131232</v>
+        <v>161975</v>
       </c>
       <c r="C231" t="s">
         <v>1891</v>
@@ -25653,7 +25653,7 @@
         <v>59764</v>
       </c>
       <c r="B232" t="n">
-        <v>131233</v>
+        <v>161976</v>
       </c>
       <c r="C232" t="s">
         <v>1900</v>
@@ -25793,7 +25793,7 @@
         <v>59764</v>
       </c>
       <c r="B234" t="n">
-        <v>131234</v>
+        <v>131151</v>
       </c>
       <c r="C234" t="s">
         <v>1918</v>
@@ -25868,7 +25868,7 @@
         <v>59764</v>
       </c>
       <c r="B235" t="n">
-        <v>131235</v>
+        <v>161977</v>
       </c>
       <c r="C235" t="s">
         <v>1927</v>
@@ -25943,7 +25943,7 @@
         <v>59764</v>
       </c>
       <c r="B236" t="n">
-        <v>131236</v>
+        <v>161978</v>
       </c>
       <c r="C236" t="s">
         <v>1935</v>
@@ -26018,7 +26018,7 @@
         <v>59764</v>
       </c>
       <c r="B237" t="n">
-        <v>131237</v>
+        <v>161979</v>
       </c>
       <c r="C237" t="s">
         <v>1942</v>
@@ -26168,7 +26168,7 @@
         <v>59764</v>
       </c>
       <c r="B239" t="n">
-        <v>131238</v>
+        <v>161980</v>
       </c>
       <c r="C239" t="s">
         <v>1957</v>
@@ -26243,7 +26243,7 @@
         <v>59764</v>
       </c>
       <c r="B240" t="n">
-        <v>131239</v>
+        <v>161981</v>
       </c>
       <c r="C240" t="s">
         <v>1966</v>
@@ -26318,7 +26318,7 @@
         <v>59764</v>
       </c>
       <c r="B241" t="n">
-        <v>131240</v>
+        <v>161982</v>
       </c>
       <c r="C241" t="s">
         <v>1973</v>
@@ -26391,7 +26391,7 @@
         <v>59764</v>
       </c>
       <c r="B242" t="n">
-        <v>131241</v>
+        <v>161983</v>
       </c>
       <c r="C242" t="s">
         <v>1980</v>
@@ -26466,7 +26466,7 @@
         <v>59764</v>
       </c>
       <c r="B243" t="n">
-        <v>131242</v>
+        <v>161984</v>
       </c>
       <c r="C243" t="s">
         <v>1989</v>
@@ -26691,7 +26691,7 @@
         <v>59764</v>
       </c>
       <c r="B246" t="n">
-        <v>131243</v>
+        <v>161985</v>
       </c>
       <c r="C246" t="s">
         <v>2013</v>
@@ -26766,7 +26766,7 @@
         <v>59764</v>
       </c>
       <c r="B247" t="n">
-        <v>131244</v>
+        <v>161986</v>
       </c>
       <c r="C247" t="s">
         <v>2023</v>
@@ -26841,7 +26841,7 @@
         <v>59764</v>
       </c>
       <c r="B248" t="n">
-        <v>131245</v>
+        <v>161987</v>
       </c>
       <c r="C248" t="s">
         <v>2029</v>
@@ -26981,7 +26981,7 @@
         <v>59764</v>
       </c>
       <c r="B250" t="n">
-        <v>131246</v>
+        <v>161988</v>
       </c>
       <c r="C250" t="s">
         <v>2045</v>
@@ -27056,7 +27056,7 @@
         <v>59764</v>
       </c>
       <c r="B251" t="n">
-        <v>131247</v>
+        <v>161989</v>
       </c>
       <c r="C251" t="s">
         <v>2051</v>
@@ -27131,7 +27131,7 @@
         <v>59764</v>
       </c>
       <c r="B252" t="n">
-        <v>131248</v>
+        <v>161990</v>
       </c>
       <c r="C252" t="s">
         <v>2059</v>
@@ -27202,7 +27202,7 @@
         <v>59764</v>
       </c>
       <c r="B253" t="n">
-        <v>131249</v>
+        <v>161991</v>
       </c>
       <c r="C253" t="s">
         <v>2066</v>
@@ -27277,7 +27277,7 @@
         <v>59764</v>
       </c>
       <c r="B254" t="n">
-        <v>131250</v>
+        <v>161992</v>
       </c>
       <c r="C254" t="s">
         <v>2075</v>
@@ -27423,7 +27423,7 @@
         <v>59764</v>
       </c>
       <c r="B256" t="n">
-        <v>131251</v>
+        <v>161993</v>
       </c>
       <c r="C256" t="s">
         <v>2092</v>
@@ -27498,7 +27498,7 @@
         <v>59764</v>
       </c>
       <c r="B257" t="n">
-        <v>131252</v>
+        <v>161994</v>
       </c>
       <c r="C257" t="s">
         <v>2099</v>
@@ -27715,7 +27715,7 @@
         <v>59764</v>
       </c>
       <c r="B260" t="n">
-        <v>131253</v>
+        <v>161995</v>
       </c>
       <c r="C260" t="s">
         <v>2121</v>
@@ -27790,7 +27790,7 @@
         <v>59764</v>
       </c>
       <c r="B261" t="n">
-        <v>131254</v>
+        <v>161996</v>
       </c>
       <c r="C261" t="s">
         <v>2130</v>
@@ -27861,7 +27861,7 @@
         <v>59764</v>
       </c>
       <c r="B262" t="n">
-        <v>131255</v>
+        <v>161997</v>
       </c>
       <c r="C262" t="s">
         <v>2137</v>
@@ -27936,7 +27936,7 @@
         <v>59764</v>
       </c>
       <c r="B263" t="n">
-        <v>131256</v>
+        <v>161998</v>
       </c>
       <c r="C263" t="s">
         <v>2144</v>
@@ -28086,7 +28086,7 @@
         <v>59764</v>
       </c>
       <c r="B265" t="n">
-        <v>131257</v>
+        <v>161999</v>
       </c>
       <c r="C265" t="s">
         <v>2160</v>
@@ -28232,7 +28232,7 @@
         <v>59764</v>
       </c>
       <c r="B267" t="n">
-        <v>131258</v>
+        <v>162000</v>
       </c>
       <c r="C267" t="s">
         <v>2176</v>
@@ -28421,7 +28421,7 @@
         <v>59764</v>
       </c>
       <c r="B270" t="n">
-        <v>131259</v>
+        <v>162001</v>
       </c>
       <c r="C270" t="s">
         <v>2196</v>
@@ -28492,7 +28492,7 @@
         <v>59764</v>
       </c>
       <c r="B271" t="n">
-        <v>131260</v>
+        <v>162002</v>
       </c>
       <c r="C271" t="s">
         <v>2203</v>
@@ -28563,7 +28563,7 @@
         <v>59764</v>
       </c>
       <c r="B272" t="n">
-        <v>131261</v>
+        <v>162003</v>
       </c>
       <c r="C272" t="s">
         <v>2209</v>
@@ -28634,7 +28634,7 @@
         <v>59764</v>
       </c>
       <c r="B273" t="n">
-        <v>131262</v>
+        <v>162004</v>
       </c>
       <c r="C273" t="s">
         <v>2215</v>
@@ -28831,7 +28831,7 @@
         <v>59764</v>
       </c>
       <c r="B276" t="n">
-        <v>131263</v>
+        <v>162005</v>
       </c>
       <c r="C276" t="s">
         <v>2239</v>
@@ -28906,7 +28906,7 @@
         <v>59764</v>
       </c>
       <c r="B277" t="n">
-        <v>131264</v>
+        <v>162006</v>
       </c>
       <c r="C277" t="s">
         <v>2247</v>
@@ -28973,7 +28973,7 @@
         <v>59764</v>
       </c>
       <c r="B278" t="n">
-        <v>131265</v>
+        <v>162007</v>
       </c>
       <c r="C278" t="s">
         <v>2253</v>
@@ -29044,7 +29044,7 @@
         <v>59764</v>
       </c>
       <c r="B279" t="n">
-        <v>131266</v>
+        <v>162008</v>
       </c>
       <c r="C279" t="s">
         <v>2259</v>
@@ -29194,7 +29194,7 @@
         <v>59764</v>
       </c>
       <c r="B281" t="n">
-        <v>131267</v>
+        <v>162009</v>
       </c>
       <c r="C281" t="s">
         <v>2275</v>
@@ -29269,7 +29269,7 @@
         <v>59764</v>
       </c>
       <c r="B282" t="n">
-        <v>131268</v>
+        <v>162010</v>
       </c>
       <c r="C282" t="s">
         <v>2284</v>
@@ -29344,7 +29344,7 @@
         <v>59764</v>
       </c>
       <c r="B283" t="n">
-        <v>131269</v>
+        <v>162011</v>
       </c>
       <c r="C283" t="s">
         <v>2291</v>
@@ -29415,7 +29415,7 @@
         <v>59764</v>
       </c>
       <c r="B284" t="n">
-        <v>131270</v>
+        <v>162012</v>
       </c>
       <c r="C284" t="s">
         <v>2297</v>
@@ -29565,7 +29565,7 @@
         <v>59764</v>
       </c>
       <c r="B286" t="n">
-        <v>131271</v>
+        <v>162013</v>
       </c>
       <c r="C286" t="s">
         <v>2315</v>
@@ -29640,7 +29640,7 @@
         <v>59764</v>
       </c>
       <c r="B287" t="n">
-        <v>131272</v>
+        <v>162014</v>
       </c>
       <c r="C287" t="s">
         <v>2323</v>
@@ -29715,7 +29715,7 @@
         <v>59764</v>
       </c>
       <c r="B288" t="n">
-        <v>131273</v>
+        <v>162015</v>
       </c>
       <c r="C288" t="s">
         <v>2332</v>
@@ -29790,7 +29790,7 @@
         <v>59764</v>
       </c>
       <c r="B289" t="n">
-        <v>131274</v>
+        <v>162016</v>
       </c>
       <c r="C289" t="s">
         <v>2339</v>
@@ -29865,7 +29865,7 @@
         <v>59764</v>
       </c>
       <c r="B290" t="n">
-        <v>131275</v>
+        <v>162017</v>
       </c>
       <c r="C290" t="s">
         <v>2348</v>
@@ -29932,7 +29932,7 @@
         <v>59764</v>
       </c>
       <c r="B291" t="n">
-        <v>131276</v>
+        <v>162018</v>
       </c>
       <c r="C291" t="s">
         <v>2358</v>
@@ -30007,7 +30007,7 @@
         <v>59764</v>
       </c>
       <c r="B292" t="n">
-        <v>131277</v>
+        <v>162019</v>
       </c>
       <c r="C292" t="s">
         <v>2368</v>
@@ -30082,7 +30082,7 @@
         <v>59764</v>
       </c>
       <c r="B293" t="n">
-        <v>131278</v>
+        <v>162020</v>
       </c>
       <c r="C293" t="s">
         <v>2375</v>
@@ -30153,7 +30153,7 @@
         <v>59764</v>
       </c>
       <c r="B294" t="n">
-        <v>131279</v>
+        <v>162021</v>
       </c>
       <c r="C294" t="s">
         <v>2382</v>
@@ -30224,7 +30224,7 @@
         <v>59764</v>
       </c>
       <c r="B295" t="n">
-        <v>131280</v>
+        <v>162022</v>
       </c>
       <c r="C295" t="s">
         <v>2388</v>
@@ -30291,7 +30291,7 @@
         <v>59764</v>
       </c>
       <c r="B296" t="n">
-        <v>131281</v>
+        <v>162023</v>
       </c>
       <c r="C296" t="s">
         <v>2394</v>
@@ -30366,7 +30366,7 @@
         <v>59764</v>
       </c>
       <c r="B297" t="n">
-        <v>131282</v>
+        <v>162024</v>
       </c>
       <c r="C297" t="s">
         <v>2403</v>
@@ -30508,7 +30508,7 @@
         <v>59764</v>
       </c>
       <c r="B299" t="n">
-        <v>131283</v>
+        <v>162025</v>
       </c>
       <c r="C299" t="s">
         <v>2416</v>
@@ -30579,7 +30579,7 @@
         <v>59764</v>
       </c>
       <c r="B300" t="n">
-        <v>131284</v>
+        <v>162026</v>
       </c>
       <c r="C300" t="s">
         <v>2423</v>
@@ -30650,7 +30650,7 @@
         <v>59764</v>
       </c>
       <c r="B301" t="n">
-        <v>131285</v>
+        <v>162027</v>
       </c>
       <c r="C301" t="s">
         <v>2429</v>
@@ -30721,7 +30721,7 @@
         <v>59764</v>
       </c>
       <c r="B302" t="n">
-        <v>131233</v>
+        <v>131151</v>
       </c>
       <c r="C302" t="s">
         <v>1918</v>
@@ -30788,7 +30788,7 @@
         <v>59764</v>
       </c>
       <c r="B303" t="n">
-        <v>131286</v>
+        <v>162028</v>
       </c>
       <c r="C303" t="s">
         <v>2443</v>
@@ -30859,7 +30859,7 @@
         <v>59764</v>
       </c>
       <c r="B304" t="n">
-        <v>131287</v>
+        <v>162029</v>
       </c>
       <c r="C304" t="s">
         <v>2450</v>
@@ -30930,7 +30930,7 @@
         <v>59764</v>
       </c>
       <c r="B305" t="n">
-        <v>131288</v>
+        <v>162030</v>
       </c>
       <c r="C305" t="s">
         <v>2457</v>
@@ -31005,7 +31005,7 @@
         <v>59764</v>
       </c>
       <c r="B306" t="n">
-        <v>131289</v>
+        <v>162031</v>
       </c>
       <c r="C306" t="s">
         <v>2467</v>
@@ -31080,7 +31080,7 @@
         <v>59764</v>
       </c>
       <c r="B307" t="n">
-        <v>131290</v>
+        <v>162032</v>
       </c>
       <c r="C307" t="s">
         <v>2476</v>
@@ -31151,7 +31151,7 @@
         <v>59764</v>
       </c>
       <c r="B308" t="n">
-        <v>131291</v>
+        <v>162033</v>
       </c>
       <c r="C308" t="s">
         <v>2482</v>
@@ -31293,7 +31293,7 @@
         <v>59764</v>
       </c>
       <c r="B310" t="n">
-        <v>131292</v>
+        <v>162034</v>
       </c>
       <c r="C310" t="s">
         <v>2494</v>
@@ -31364,7 +31364,7 @@
         <v>59764</v>
       </c>
       <c r="B311" t="n">
-        <v>131293</v>
+        <v>162035</v>
       </c>
       <c r="C311" t="s">
         <v>2501</v>
@@ -31435,7 +31435,7 @@
         <v>59764</v>
       </c>
       <c r="B312" t="n">
-        <v>131294</v>
+        <v>162036</v>
       </c>
       <c r="C312" t="s">
         <v>2508</v>
@@ -31577,7 +31577,7 @@
         <v>59764</v>
       </c>
       <c r="B314" t="n">
-        <v>131295</v>
+        <v>162037</v>
       </c>
       <c r="C314" t="s">
         <v>2525</v>
@@ -31644,7 +31644,7 @@
         <v>59764</v>
       </c>
       <c r="B315" t="n">
-        <v>131296</v>
+        <v>162038</v>
       </c>
       <c r="C315" t="s">
         <v>2531</v>
@@ -31713,7 +31713,7 @@
         <v>59764</v>
       </c>
       <c r="B316" t="n">
-        <v>131297</v>
+        <v>162039</v>
       </c>
       <c r="C316" t="s">
         <v>2538</v>
@@ -31782,7 +31782,7 @@
         <v>59764</v>
       </c>
       <c r="B317" t="n">
-        <v>131298</v>
+        <v>162040</v>
       </c>
       <c r="C317" t="s">
         <v>2545</v>
@@ -31851,7 +31851,7 @@
         <v>59764</v>
       </c>
       <c r="B318" t="n">
-        <v>131299</v>
+        <v>162041</v>
       </c>
       <c r="C318" t="s">
         <v>2553</v>
@@ -31918,7 +31918,7 @@
         <v>59764</v>
       </c>
       <c r="B319" t="n">
-        <v>131300</v>
+        <v>162042</v>
       </c>
       <c r="C319" t="s">
         <v>2560</v>
@@ -31985,7 +31985,7 @@
         <v>59764</v>
       </c>
       <c r="B320" t="n">
-        <v>131301</v>
+        <v>162043</v>
       </c>
       <c r="C320" t="s">
         <v>2565</v>
@@ -32056,7 +32056,7 @@
         <v>59764</v>
       </c>
       <c r="B321" t="n">
-        <v>131302</v>
+        <v>162044</v>
       </c>
       <c r="C321" t="s">
         <v>2574</v>
@@ -32123,7 +32123,7 @@
         <v>59764</v>
       </c>
       <c r="B322" t="n">
-        <v>131303</v>
+        <v>162045</v>
       </c>
       <c r="C322" t="s">
         <v>2580</v>
@@ -32261,7 +32261,7 @@
         <v>59764</v>
       </c>
       <c r="B324" t="n">
-        <v>131304</v>
+        <v>162046</v>
       </c>
       <c r="C324" t="s">
         <v>2597</v>
@@ -32332,7 +32332,7 @@
         <v>59764</v>
       </c>
       <c r="B325" t="n">
-        <v>131305</v>
+        <v>162047</v>
       </c>
       <c r="C325" t="s">
         <v>2607</v>
@@ -32403,7 +32403,7 @@
         <v>59764</v>
       </c>
       <c r="B326" t="n">
-        <v>131306</v>
+        <v>162048</v>
       </c>
       <c r="C326" t="s">
         <v>2616</v>
@@ -32470,7 +32470,7 @@
         <v>59764</v>
       </c>
       <c r="B327" t="n">
-        <v>131307</v>
+        <v>162049</v>
       </c>
       <c r="C327" t="s">
         <v>2624</v>
@@ -32537,7 +32537,7 @@
         <v>59764</v>
       </c>
       <c r="B328" t="n">
-        <v>131201</v>
+        <v>131127</v>
       </c>
       <c r="C328" t="s">
         <v>1521</v>
@@ -32604,7 +32604,7 @@
         <v>59764</v>
       </c>
       <c r="B329" t="n">
-        <v>131308</v>
+        <v>162050</v>
       </c>
       <c r="C329" t="s">
         <v>2636</v>
@@ -32675,7 +32675,7 @@
         <v>59764</v>
       </c>
       <c r="B330" t="n">
-        <v>131309</v>
+        <v>162051</v>
       </c>
       <c r="C330" t="s">
         <v>2645</v>
@@ -32746,7 +32746,7 @@
         <v>59764</v>
       </c>
       <c r="B331" t="n">
-        <v>131310</v>
+        <v>162052</v>
       </c>
       <c r="C331" t="s">
         <v>2654</v>
@@ -32817,7 +32817,7 @@
         <v>59764</v>
       </c>
       <c r="B332" t="n">
-        <v>131311</v>
+        <v>162053</v>
       </c>
       <c r="C332" t="s">
         <v>2660</v>
@@ -32888,7 +32888,7 @@
         <v>59764</v>
       </c>
       <c r="B333" t="n">
-        <v>131312</v>
+        <v>162054</v>
       </c>
       <c r="C333" t="s">
         <v>2667</v>
@@ -32959,7 +32959,7 @@
         <v>59764</v>
       </c>
       <c r="B334" t="n">
-        <v>131313</v>
+        <v>162055</v>
       </c>
       <c r="C334" t="s">
         <v>2674</v>
@@ -33030,7 +33030,7 @@
         <v>59764</v>
       </c>
       <c r="B335" t="n">
-        <v>131314</v>
+        <v>162056</v>
       </c>
       <c r="C335" t="s">
         <v>2680</v>
@@ -33172,7 +33172,7 @@
         <v>59764</v>
       </c>
       <c r="B337" t="n">
-        <v>131315</v>
+        <v>162057</v>
       </c>
       <c r="C337" t="s">
         <v>2694</v>
@@ -33233,7 +33233,7 @@
         <v>59764</v>
       </c>
       <c r="B338" t="n">
-        <v>131221</v>
+        <v>131157</v>
       </c>
       <c r="C338" t="s">
         <v>1778</v>
@@ -33375,7 +33375,7 @@
         <v>59764</v>
       </c>
       <c r="B340" t="n">
-        <v>131316</v>
+        <v>162058</v>
       </c>
       <c r="C340" t="s">
         <v>2713</v>
@@ -33442,7 +33442,7 @@
         <v>59764</v>
       </c>
       <c r="B341" t="n">
-        <v>131317</v>
+        <v>162059</v>
       </c>
       <c r="C341" t="s">
         <v>2720</v>
@@ -33513,7 +33513,7 @@
         <v>59764</v>
       </c>
       <c r="B342" t="n">
-        <v>131318</v>
+        <v>162060</v>
       </c>
       <c r="C342" t="s">
         <v>2728</v>
@@ -33584,7 +33584,7 @@
         <v>59764</v>
       </c>
       <c r="B343" t="n">
-        <v>131319</v>
+        <v>162061</v>
       </c>
       <c r="C343" t="s">
         <v>2735</v>
@@ -33655,7 +33655,7 @@
         <v>59764</v>
       </c>
       <c r="B344" t="n">
-        <v>131320</v>
+        <v>162062</v>
       </c>
       <c r="C344" t="s">
         <v>2742</v>
@@ -33726,7 +33726,7 @@
         <v>59764</v>
       </c>
       <c r="B345" t="n">
-        <v>131321</v>
+        <v>162063</v>
       </c>
       <c r="C345" t="s">
         <v>2750</v>
@@ -33797,7 +33797,7 @@
         <v>59764</v>
       </c>
       <c r="B346" t="n">
-        <v>131322</v>
+        <v>162064</v>
       </c>
       <c r="C346" t="s">
         <v>2756</v>
@@ -33868,7 +33868,7 @@
         <v>59764</v>
       </c>
       <c r="B347" t="n">
-        <v>131323</v>
+        <v>162065</v>
       </c>
       <c r="C347" t="s">
         <v>2762</v>
@@ -33939,7 +33939,7 @@
         <v>59764</v>
       </c>
       <c r="B348" t="n">
-        <v>131324</v>
+        <v>162066</v>
       </c>
       <c r="C348" t="s">
         <v>2769</v>
@@ -34010,7 +34010,7 @@
         <v>59764</v>
       </c>
       <c r="B349" t="n">
-        <v>131325</v>
+        <v>162067</v>
       </c>
       <c r="C349" t="s">
         <v>2775</v>
@@ -34081,7 +34081,7 @@
         <v>59764</v>
       </c>
       <c r="B350" t="n">
-        <v>131326</v>
+        <v>162068</v>
       </c>
       <c r="C350" t="s">
         <v>2781</v>
@@ -34152,7 +34152,7 @@
         <v>59764</v>
       </c>
       <c r="B351" t="n">
-        <v>131327</v>
+        <v>162069</v>
       </c>
       <c r="C351" t="s">
         <v>2788</v>
@@ -34223,7 +34223,7 @@
         <v>59764</v>
       </c>
       <c r="B352" t="n">
-        <v>131328</v>
+        <v>162070</v>
       </c>
       <c r="C352" t="s">
         <v>2794</v>
@@ -34294,7 +34294,7 @@
         <v>59764</v>
       </c>
       <c r="B353" t="n">
-        <v>131329</v>
+        <v>162071</v>
       </c>
       <c r="C353" t="s">
         <v>2802</v>
@@ -34361,7 +34361,7 @@
         <v>59764</v>
       </c>
       <c r="B354" t="n">
-        <v>131330</v>
+        <v>162072</v>
       </c>
       <c r="C354" t="s">
         <v>2809</v>
@@ -34432,7 +34432,7 @@
         <v>59764</v>
       </c>
       <c r="B355" t="n">
-        <v>131331</v>
+        <v>162073</v>
       </c>
       <c r="C355" t="s">
         <v>2816</v>
@@ -34503,7 +34503,7 @@
         <v>59764</v>
       </c>
       <c r="B356" t="n">
-        <v>131332</v>
+        <v>162074</v>
       </c>
       <c r="C356" t="s">
         <v>2824</v>
@@ -34574,7 +34574,7 @@
         <v>59764</v>
       </c>
       <c r="B357" t="n">
-        <v>131333</v>
+        <v>162075</v>
       </c>
       <c r="C357" t="s">
         <v>2832</v>
@@ -34635,7 +34635,7 @@
         <v>59764</v>
       </c>
       <c r="B358" t="n">
-        <v>131334</v>
+        <v>162076</v>
       </c>
       <c r="C358" t="s">
         <v>2838</v>
@@ -34706,7 +34706,7 @@
         <v>59764</v>
       </c>
       <c r="B359" t="n">
-        <v>131335</v>
+        <v>162077</v>
       </c>
       <c r="C359" t="s">
         <v>2845</v>
@@ -34777,7 +34777,7 @@
         <v>59764</v>
       </c>
       <c r="B360" t="n">
-        <v>131336</v>
+        <v>162078</v>
       </c>
       <c r="C360" t="s">
         <v>2853</v>
@@ -34848,7 +34848,7 @@
         <v>59764</v>
       </c>
       <c r="B361" t="n">
-        <v>131337</v>
+        <v>162079</v>
       </c>
       <c r="C361" t="s">
         <v>2859</v>
@@ -34919,7 +34919,7 @@
         <v>59764</v>
       </c>
       <c r="B362" t="n">
-        <v>131338</v>
+        <v>162080</v>
       </c>
       <c r="C362" t="s">
         <v>2866</v>
@@ -34990,7 +34990,7 @@
         <v>59764</v>
       </c>
       <c r="B363" t="n">
-        <v>131168</v>
+        <v>131159</v>
       </c>
       <c r="C363" t="s">
         <v>1145</v>
@@ -35061,7 +35061,7 @@
         <v>59764</v>
       </c>
       <c r="B364" t="n">
-        <v>131339</v>
+        <v>162081</v>
       </c>
       <c r="C364" t="s">
         <v>2878</v>
@@ -35132,7 +35132,7 @@
         <v>59764</v>
       </c>
       <c r="B365" t="n">
-        <v>131340</v>
+        <v>162082</v>
       </c>
       <c r="C365" t="s">
         <v>2883</v>
@@ -35203,7 +35203,7 @@
         <v>59764</v>
       </c>
       <c r="B366" t="n">
-        <v>131341</v>
+        <v>162083</v>
       </c>
       <c r="C366" t="s">
         <v>2889</v>
@@ -35274,7 +35274,7 @@
         <v>59764</v>
       </c>
       <c r="B367" t="n">
-        <v>131342</v>
+        <v>162084</v>
       </c>
       <c r="C367" t="s">
         <v>2895</v>
@@ -35349,7 +35349,7 @@
         <v>59764</v>
       </c>
       <c r="B368" t="n">
-        <v>131343</v>
+        <v>162085</v>
       </c>
       <c r="C368" t="s">
         <v>2904</v>
@@ -35420,7 +35420,7 @@
         <v>59764</v>
       </c>
       <c r="B369" t="n">
-        <v>131344</v>
+        <v>162086</v>
       </c>
       <c r="C369" t="s">
         <v>2912</v>
@@ -35491,7 +35491,7 @@
         <v>59764</v>
       </c>
       <c r="B370" t="n">
-        <v>131345</v>
+        <v>162087</v>
       </c>
       <c r="C370" t="s">
         <v>2920</v>
@@ -35562,7 +35562,7 @@
         <v>59764</v>
       </c>
       <c r="B371" t="n">
-        <v>131346</v>
+        <v>162088</v>
       </c>
       <c r="C371" t="s">
         <v>2928</v>
@@ -35633,7 +35633,7 @@
         <v>59764</v>
       </c>
       <c r="B372" t="n">
-        <v>131347</v>
+        <v>162089</v>
       </c>
       <c r="C372" t="s">
         <v>2934</v>
@@ -35704,7 +35704,7 @@
         <v>59764</v>
       </c>
       <c r="B373" t="n">
-        <v>131348</v>
+        <v>162090</v>
       </c>
       <c r="C373" t="s">
         <v>2941</v>
@@ -35775,7 +35775,7 @@
         <v>59764</v>
       </c>
       <c r="B374" t="n">
-        <v>131349</v>
+        <v>162091</v>
       </c>
       <c r="C374" t="s">
         <v>2947</v>
